--- a/Warrior-Pilgrims/Assets/Resources/Data/Move/MoveTypes.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Move/MoveTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Move\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B53FF4-64AB-4907-AD85-BE537B320E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DB2E9-FAC2-40B3-A098-CA7D5D903D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3030" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,21 +83,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,10 +114,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA965BA4-EEF4-4D18-830E-DE8DC0860E6C}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA965BA4-EEF4-4D18-830E-DE8DC0860E6C}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:A3" xr:uid="{CA965BA4-EEF4-4D18-830E-DE8DC0860E6C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{561E3B91-0C89-469A-BB3C-281549FC2256}" name="MoveType" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{561E3B91-0C89-469A-BB3C-281549FC2256}" name="MoveType" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -388,7 +389,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,12 +403,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -553,7 +554,7 @@
       <c r="A50" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
